--- a/qualcomputador/dados/qual_computador_tratado.xlsx
+++ b/qualcomputador/dados/qual_computador_tratado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb95d6a7f4534cf5/IAED/qual_computador/dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\iaed2021\qualcomputador\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{84D264C5-FBD3-0540-B321-74B94DA782F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1216D46-396A-4362-95DA-167864E4754D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D9FBA3-2EE7-45D7-900C-16CBFC930435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19860" yWindow="2520" windowWidth="16485" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="computador" sheetId="1" r:id="rId1"/>
@@ -433,17 +433,17 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.69921875" customWidth="1"/>
-    <col min="2" max="2" width="22.296875" customWidth="1"/>
+    <col min="2" max="2" width="20.796875" customWidth="1"/>
     <col min="3" max="3" width="5.69921875" customWidth="1"/>
     <col min="4" max="4" width="10.69921875" customWidth="1"/>
     <col min="5" max="5" width="4.796875" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="6" max="6" width="27.796875" customWidth="1"/>
     <col min="7" max="7" width="9.09765625" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
